--- a/Catalog/Jupiter Session Processing and Analysis Notes.xlsx
+++ b/Catalog/Jupiter Session Processing and Analysis Notes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Astronomy\Projects\SAS 2021 Ammonia\Jupiter_NH3_Analysis_P3\Catalog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8F36D11-E93A-4ECF-A0BC-E57CCA65CEEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9AEC8EF-AEA9-4B23-B345-E104007FE2DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="560" firstSheet="1" activeTab="1" xr2:uid="{05635B54-1AD3-49CD-8C06-A4005DAA2CD5}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1410" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1428" uniqueCount="133">
   <si>
     <t>2020-07-20-0457_9-Jupiter-NoWV-NH3Abs656-0.9to1.1scale_MapFlattened-CM2_L360_MAP-BARE.png</t>
   </si>
@@ -2726,13 +2726,13 @@
   <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AC165"/>
+  <dimension ref="A1:AC167"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B156" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B74" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D171" sqref="D171"/>
+      <selection pane="bottomRight" activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8720,6 +8720,70 @@
         <v>87</v>
       </c>
       <c r="N165" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A166" s="53">
+        <v>45342</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G166" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H166" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="I166" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="J166" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K166" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L166" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="M166" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="N166" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A167" s="53">
+        <v>45342</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G167" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H167" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="I167" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="J167" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K167" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L167" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="M167" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="N167" s="3" t="s">
         <v>87</v>
       </c>
     </row>

--- a/Catalog/Jupiter Session Processing and Analysis Notes.xlsx
+++ b/Catalog/Jupiter Session Processing and Analysis Notes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Astronomy\Projects\SAS 2021 Ammonia\Jupiter_NH3_Analysis_P3\Catalog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9AEC8EF-AEA9-4B23-B345-E104007FE2DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A9A6BB1-D058-4653-842A-5ED22AFA1091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="560" firstSheet="1" activeTab="1" xr2:uid="{05635B54-1AD3-49CD-8C06-A4005DAA2CD5}"/>
   </bookViews>
@@ -22,7 +22,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="1" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1736,7 +1736,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{45B2BBB7-02E3-49A7-AE80-0778995E2335}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{45B2BBB7-02E3-49A7-AE80-0778995E2335}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:M47" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" numFmtId="166" showAll="0" sortType="ascending">
@@ -2030,9 +2030,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2070,7 +2070,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2176,7 +2176,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2318,7 +2318,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2332,22 +2332,22 @@
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="7.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.7265625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.1796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="6.7265625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="42" t="s">
         <v>33</v>
       </c>
@@ -2355,7 +2355,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="42" t="s">
         <v>131</v>
       </c>
@@ -2363,7 +2363,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="42" t="s">
         <v>127</v>
       </c>
@@ -2404,7 +2404,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="43">
         <v>44014</v>
       </c>
@@ -2424,7 +2424,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="43">
         <v>44018</v>
       </c>
@@ -2453,7 +2453,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="43">
         <v>44022</v>
       </c>
@@ -2482,7 +2482,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="43">
         <v>44032</v>
       </c>
@@ -2493,197 +2493,197 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="43">
         <v>44041</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="43">
         <v>44042</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="43">
         <v>44043</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="43">
         <v>44369</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="43">
         <v>44385</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="43">
         <v>44396</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="43">
         <v>44397</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="43">
         <v>44449</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="43">
         <v>44452</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="43">
         <v>44454</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="43">
         <v>44458</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="43">
         <v>44459</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="43">
         <v>44462</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="43">
         <v>44465</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="43">
         <v>44466</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="43">
         <v>44486</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="43">
         <v>44488</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="43">
         <v>44491</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="43">
         <v>44530</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="43">
         <v>44532</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="43">
         <v>44533</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="43">
         <v>44783</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="43">
         <v>44785</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="43">
         <v>44791</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="43">
         <v>44801</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="43">
         <v>44803</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="43">
         <v>44805</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="43">
         <v>44808</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="43">
         <v>44809</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="43">
         <v>44816</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="43">
         <v>44817</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="43">
         <v>44823</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="43">
         <v>44829</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="43">
         <v>44843</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="43">
         <v>44847</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="43">
         <v>44853</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="43">
         <v>44854</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="43">
         <v>44855</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="43" t="s">
         <v>128</v>
       </c>
@@ -2729,38 +2729,38 @@
   <dimension ref="A1:AC167"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B74" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B156" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C80" sqref="C80"/>
+      <selection pane="bottomRight" activeCell="A158" sqref="A158:A167"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" style="45" customWidth="1"/>
-    <col min="2" max="2" width="10.453125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="46.54296875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="46.5703125" style="3" customWidth="1"/>
     <col min="4" max="4" width="13" style="4" customWidth="1"/>
-    <col min="5" max="6" width="8.7265625" style="1"/>
-    <col min="7" max="9" width="7.7265625" style="3" customWidth="1"/>
-    <col min="10" max="11" width="7.54296875" style="3" customWidth="1"/>
-    <col min="12" max="12" width="7.81640625" style="3" customWidth="1"/>
-    <col min="13" max="15" width="6.54296875" style="3" customWidth="1"/>
-    <col min="16" max="16" width="5.453125" style="3" customWidth="1"/>
-    <col min="17" max="17" width="8.7265625" style="1"/>
-    <col min="18" max="18" width="8.7265625" style="4"/>
-    <col min="19" max="19" width="8.7265625" style="1"/>
-    <col min="20" max="20" width="8.7265625" style="23"/>
-    <col min="21" max="22" width="6.54296875" style="23" customWidth="1"/>
-    <col min="23" max="23" width="5.1796875" style="1" customWidth="1"/>
-    <col min="24" max="24" width="50.26953125" style="2" customWidth="1"/>
-    <col min="25" max="25" width="30.453125" style="2" customWidth="1"/>
+    <col min="5" max="6" width="8.7109375" style="1"/>
+    <col min="7" max="9" width="7.7109375" style="3" customWidth="1"/>
+    <col min="10" max="11" width="7.5703125" style="3" customWidth="1"/>
+    <col min="12" max="12" width="7.85546875" style="3" customWidth="1"/>
+    <col min="13" max="15" width="6.5703125" style="3" customWidth="1"/>
+    <col min="16" max="16" width="5.42578125" style="3" customWidth="1"/>
+    <col min="17" max="17" width="8.7109375" style="1"/>
+    <col min="18" max="18" width="8.7109375" style="4"/>
+    <col min="19" max="19" width="8.7109375" style="1"/>
+    <col min="20" max="20" width="8.7109375" style="23"/>
+    <col min="21" max="22" width="6.5703125" style="23" customWidth="1"/>
+    <col min="23" max="23" width="5.140625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="50.28515625" style="2" customWidth="1"/>
+    <col min="25" max="25" width="30.42578125" style="2" customWidth="1"/>
     <col min="26" max="26" width="12" style="6" customWidth="1"/>
-    <col min="27" max="28" width="5.7265625" style="5" customWidth="1"/>
-    <col min="29" max="29" width="5.7265625" style="1" customWidth="1"/>
+    <col min="27" max="28" width="5.7109375" style="5" customWidth="1"/>
+    <col min="29" max="29" width="5.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="19" customFormat="1" ht="51.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" s="19" customFormat="1" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="44" t="s">
         <v>52</v>
       </c>
@@ -2849,7 +2849,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:29" s="19" customFormat="1" ht="51.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:29" s="19" customFormat="1" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="49">
         <v>44014</v>
       </c>
@@ -2885,7 +2885,7 @@
       <c r="AB2" s="21"/>
       <c r="AC2" s="20"/>
     </row>
-    <row r="3" spans="1:29" s="19" customFormat="1" ht="51.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:29" s="19" customFormat="1" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="49">
         <v>44014</v>
       </c>
@@ -2921,7 +2921,7 @@
       <c r="AB3" s="21"/>
       <c r="AC3" s="20"/>
     </row>
-    <row r="4" spans="1:29" s="19" customFormat="1" ht="51.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:29" s="19" customFormat="1" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="49">
         <v>44014</v>
       </c>
@@ -2957,7 +2957,7 @@
       <c r="AB4" s="21"/>
       <c r="AC4" s="20"/>
     </row>
-    <row r="5" spans="1:29" s="19" customFormat="1" ht="51.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:29" s="19" customFormat="1" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="49">
         <v>44014</v>
       </c>
@@ -2993,7 +2993,7 @@
       <c r="AB5" s="21"/>
       <c r="AC5" s="20"/>
     </row>
-    <row r="6" spans="1:29" s="19" customFormat="1" ht="51.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:29" s="19" customFormat="1" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="49">
         <v>44018</v>
       </c>
@@ -3029,7 +3029,7 @@
       <c r="AB6" s="21"/>
       <c r="AC6" s="20"/>
     </row>
-    <row r="7" spans="1:29" s="19" customFormat="1" ht="51.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:29" s="19" customFormat="1" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="49">
         <v>44018</v>
       </c>
@@ -3065,7 +3065,7 @@
       <c r="AB7" s="21"/>
       <c r="AC7" s="20"/>
     </row>
-    <row r="8" spans="1:29" s="19" customFormat="1" ht="51.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:29" s="19" customFormat="1" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="49">
         <v>44018</v>
       </c>
@@ -3101,7 +3101,7 @@
       <c r="AB8" s="21"/>
       <c r="AC8" s="20"/>
     </row>
-    <row r="9" spans="1:29" s="19" customFormat="1" ht="51.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:29" s="19" customFormat="1" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="49">
         <v>44018</v>
       </c>
@@ -3137,7 +3137,7 @@
       <c r="AB9" s="21"/>
       <c r="AC9" s="20"/>
     </row>
-    <row r="10" spans="1:29" s="19" customFormat="1" ht="51.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:29" s="19" customFormat="1" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="49">
         <v>44018</v>
       </c>
@@ -3173,7 +3173,7 @@
       <c r="AB10" s="21"/>
       <c r="AC10" s="20"/>
     </row>
-    <row r="11" spans="1:29" s="19" customFormat="1" ht="51.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:29" s="19" customFormat="1" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="49">
         <v>44018</v>
       </c>
@@ -3209,7 +3209,7 @@
       <c r="AB11" s="21"/>
       <c r="AC11" s="20"/>
     </row>
-    <row r="12" spans="1:29" s="19" customFormat="1" ht="51.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:29" s="19" customFormat="1" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="49">
         <v>44018</v>
       </c>
@@ -3245,7 +3245,7 @@
       <c r="AB12" s="21"/>
       <c r="AC12" s="20"/>
     </row>
-    <row r="13" spans="1:29" s="19" customFormat="1" ht="51.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:29" s="19" customFormat="1" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="49">
         <v>44022</v>
       </c>
@@ -3281,7 +3281,7 @@
       <c r="AB13" s="21"/>
       <c r="AC13" s="20"/>
     </row>
-    <row r="14" spans="1:29" s="19" customFormat="1" ht="51.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:29" s="19" customFormat="1" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="49">
         <v>44022</v>
       </c>
@@ -3317,7 +3317,7 @@
       <c r="AB14" s="21"/>
       <c r="AC14" s="20"/>
     </row>
-    <row r="15" spans="1:29" s="19" customFormat="1" ht="51.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:29" s="19" customFormat="1" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="49">
         <v>44022</v>
       </c>
@@ -3353,7 +3353,7 @@
       <c r="AB15" s="21"/>
       <c r="AC15" s="20"/>
     </row>
-    <row r="16" spans="1:29" s="19" customFormat="1" ht="51.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:29" s="19" customFormat="1" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="49">
         <v>44022</v>
       </c>
@@ -3389,7 +3389,7 @@
       <c r="AB16" s="21"/>
       <c r="AC16" s="20"/>
     </row>
-    <row r="17" spans="1:29" s="19" customFormat="1" ht="51.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:29" s="19" customFormat="1" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="49">
         <v>44022</v>
       </c>
@@ -3425,7 +3425,7 @@
       <c r="AB17" s="21"/>
       <c r="AC17" s="20"/>
     </row>
-    <row r="18" spans="1:29" s="19" customFormat="1" ht="51.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:29" s="19" customFormat="1" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="49">
         <v>44022</v>
       </c>
@@ -3461,7 +3461,7 @@
       <c r="AB18" s="21"/>
       <c r="AC18" s="20"/>
     </row>
-    <row r="19" spans="1:29" s="19" customFormat="1" ht="51.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:29" s="19" customFormat="1" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="49">
         <v>44022</v>
       </c>
@@ -3497,7 +3497,7 @@
       <c r="AB19" s="21"/>
       <c r="AC19" s="20"/>
     </row>
-    <row r="20" spans="1:29" ht="58" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:29" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="50">
         <v>44032</v>
       </c>
@@ -3551,7 +3551,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A21" s="50">
         <v>44032</v>
       </c>
@@ -3563,7 +3563,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A22" s="50">
         <v>44032</v>
       </c>
@@ -3575,7 +3575,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A23" s="50">
         <v>44032</v>
       </c>
@@ -3587,7 +3587,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A24" s="50">
         <v>44032</v>
       </c>
@@ -3599,7 +3599,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A25" s="50">
         <v>44032</v>
       </c>
@@ -3611,7 +3611,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A26" s="50">
         <v>44032</v>
       </c>
@@ -3623,7 +3623,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:29" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:29" ht="75" x14ac:dyDescent="0.25">
       <c r="A27" s="50">
         <v>44041</v>
       </c>
@@ -3671,7 +3671,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:29" ht="58" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:29" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="50">
         <v>44042</v>
       </c>
@@ -3719,7 +3719,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:29" ht="58" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:29" ht="90" x14ac:dyDescent="0.25">
       <c r="A29" s="50">
         <v>44043</v>
       </c>
@@ -3767,7 +3767,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="50">
         <v>44076</v>
       </c>
@@ -3782,7 +3782,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="50">
         <v>44077</v>
       </c>
@@ -3797,7 +3797,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="50">
         <v>44078</v>
       </c>
@@ -3812,7 +3812,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:29" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:29" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="50">
         <v>44087</v>
       </c>
@@ -3845,7 +3845,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:29" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:29" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="50">
         <v>44088</v>
       </c>
@@ -3878,7 +3878,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="50">
         <v>44089</v>
       </c>
@@ -3890,7 +3890,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="36" spans="1:29" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:29" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="50">
         <v>44098</v>
       </c>
@@ -3937,7 +3937,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:29" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:29" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="50">
         <v>44099</v>
       </c>
@@ -3973,7 +3973,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="50">
         <v>44111</v>
       </c>
@@ -3985,7 +3985,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="39" spans="1:29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="50">
         <v>44112</v>
       </c>
@@ -3997,7 +3997,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="40" spans="1:29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="50">
         <v>44113</v>
       </c>
@@ -4009,7 +4009,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="41" spans="1:29" ht="87" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:29" ht="105" x14ac:dyDescent="0.25">
       <c r="A41" s="46">
         <v>44369</v>
       </c>
@@ -4060,7 +4060,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:29" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:29" ht="90" x14ac:dyDescent="0.25">
       <c r="A42" s="46">
         <v>44385</v>
       </c>
@@ -4123,7 +4123,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:29" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:29" ht="120" x14ac:dyDescent="0.25">
       <c r="A43" s="46">
         <v>44396</v>
       </c>
@@ -4187,7 +4187,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:29" ht="58" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:29" ht="60" x14ac:dyDescent="0.25">
       <c r="A44" s="46">
         <v>44397</v>
       </c>
@@ -4247,7 +4247,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="46">
         <v>44420</v>
       </c>
@@ -4271,7 +4271,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="46">
         <v>44425</v>
       </c>
@@ -4295,7 +4295,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="46">
         <v>44438</v>
       </c>
@@ -4319,7 +4319,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="46">
         <v>44444</v>
       </c>
@@ -4345,7 +4345,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="46">
         <v>44445</v>
       </c>
@@ -4369,7 +4369,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:29" ht="58" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:29" ht="60" x14ac:dyDescent="0.25">
       <c r="A50" s="46">
         <v>44449</v>
       </c>
@@ -4432,7 +4432,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:29" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:29" ht="120" x14ac:dyDescent="0.25">
       <c r="A51" s="46">
         <v>44452</v>
       </c>
@@ -4461,7 +4461,7 @@
       </c>
       <c r="Y51" s="10"/>
     </row>
-    <row r="52" spans="1:29" ht="58" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:29" ht="60" x14ac:dyDescent="0.25">
       <c r="A52" s="46">
         <v>44454</v>
       </c>
@@ -4525,7 +4525,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:29" ht="58" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:29" ht="60" x14ac:dyDescent="0.25">
       <c r="A53" s="46">
         <v>44458</v>
       </c>
@@ -4563,7 +4563,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="54" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A54" s="46">
         <v>44459</v>
       </c>
@@ -4587,7 +4587,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:29" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:29" ht="120" x14ac:dyDescent="0.25">
       <c r="A55" s="46">
         <v>44462</v>
       </c>
@@ -4623,7 +4623,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="56" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A56" s="46">
         <v>44465</v>
       </c>
@@ -4647,7 +4647,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:29" ht="87" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:29" ht="90" x14ac:dyDescent="0.25">
       <c r="A57" s="46">
         <v>44466</v>
       </c>
@@ -4709,7 +4709,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:29" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:29" ht="75" x14ac:dyDescent="0.25">
       <c r="A58" s="46">
         <v>44486</v>
       </c>
@@ -4763,7 +4763,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="59" spans="1:29" ht="58" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:29" ht="60" x14ac:dyDescent="0.25">
       <c r="A59" s="46">
         <v>44488</v>
       </c>
@@ -4814,7 +4814,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:29" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:29" ht="105" x14ac:dyDescent="0.25">
       <c r="A60" s="46">
         <v>44491</v>
       </c>
@@ -4868,7 +4868,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="61" spans="1:29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="46">
         <v>44522</v>
       </c>
@@ -4886,7 +4886,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:29" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:29" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="46">
         <v>44523</v>
       </c>
@@ -4940,7 +4940,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="63" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:29" ht="45" x14ac:dyDescent="0.25">
       <c r="A63" s="46">
         <v>44530</v>
       </c>
@@ -5003,7 +5003,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:29" ht="87" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:29" ht="90" x14ac:dyDescent="0.25">
       <c r="A64" s="46">
         <v>44532</v>
       </c>
@@ -5068,7 +5068,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:29" ht="45" x14ac:dyDescent="0.25">
       <c r="A65" s="46">
         <v>44533</v>
       </c>
@@ -5133,7 +5133,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A66" s="47">
         <v>44772</v>
       </c>
@@ -5142,7 +5142,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="67" spans="1:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="47">
         <v>44783</v>
       </c>
@@ -5189,7 +5189,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="68" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A68" s="47">
         <v>44785</v>
       </c>
@@ -5236,7 +5236,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="69" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A69" s="47">
         <v>44791</v>
       </c>
@@ -5283,7 +5283,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="70" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:29" ht="75" x14ac:dyDescent="0.25">
       <c r="A70" s="47">
         <v>44801</v>
       </c>
@@ -5333,7 +5333,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="71" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:29" ht="75" x14ac:dyDescent="0.25">
       <c r="A71" s="47">
         <v>44803</v>
       </c>
@@ -5380,7 +5380,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:29" ht="75" x14ac:dyDescent="0.25">
       <c r="A72" s="47">
         <v>44805</v>
       </c>
@@ -5430,7 +5430,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="73" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:29" ht="75" x14ac:dyDescent="0.25">
       <c r="A73" s="47">
         <v>44808</v>
       </c>
@@ -5477,7 +5477,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:29" ht="75" x14ac:dyDescent="0.25">
       <c r="A74" s="47">
         <v>44809</v>
       </c>
@@ -5527,7 +5527,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="75" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A75" s="47">
         <v>44816</v>
       </c>
@@ -5574,7 +5574,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="76" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A76" s="47">
         <v>44817</v>
       </c>
@@ -5621,7 +5621,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="77" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A77" s="47">
         <v>44823</v>
       </c>
@@ -5655,7 +5655,7 @@
       <c r="T77" s="29"/>
       <c r="U77" s="28"/>
     </row>
-    <row r="78" spans="1:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="47">
         <v>44823</v>
       </c>
@@ -5702,7 +5702,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="79" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A79" s="47">
         <v>44829</v>
       </c>
@@ -5749,7 +5749,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="80" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A80" s="47">
         <v>44843</v>
       </c>
@@ -5796,7 +5796,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A81" s="47">
         <v>44843</v>
       </c>
@@ -5816,7 +5816,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="82" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A82" s="47">
         <v>44847</v>
       </c>
@@ -5860,7 +5860,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A83" s="47">
         <v>44853</v>
       </c>
@@ -5907,7 +5907,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A84" s="47">
         <v>44854</v>
       </c>
@@ -5951,7 +5951,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A85" s="47">
         <v>44855</v>
       </c>
@@ -5998,7 +5998,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="86" spans="1:24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="47">
         <v>44865</v>
       </c>
@@ -6027,7 +6027,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="87" spans="1:24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="47">
         <v>44866</v>
       </c>
@@ -6056,7 +6056,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="88" spans="1:24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="47">
         <v>44874</v>
       </c>
@@ -6085,7 +6085,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="89" spans="1:24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="47">
         <v>44886</v>
       </c>
@@ -6111,7 +6111,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="90" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A90" s="47">
         <v>44939</v>
       </c>
@@ -6149,7 +6149,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A91" s="54">
         <v>45153</v>
       </c>
@@ -6187,7 +6187,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A92" s="54">
         <v>45154</v>
       </c>
@@ -6225,7 +6225,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A93" s="48">
         <v>45155</v>
       </c>
@@ -6263,7 +6263,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A94" s="48">
         <v>45156</v>
       </c>
@@ -6301,7 +6301,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A95" s="48">
         <v>45165</v>
       </c>
@@ -6339,7 +6339,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A96" s="48">
         <v>45165</v>
       </c>
@@ -6377,7 +6377,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A97" s="48">
         <v>45168</v>
       </c>
@@ -6415,7 +6415,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A98" s="48">
         <v>45169</v>
       </c>
@@ -6453,7 +6453,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A99" s="48">
         <v>45169</v>
       </c>
@@ -6491,7 +6491,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A100" s="48">
         <v>45174</v>
       </c>
@@ -6529,7 +6529,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A101" s="48">
         <v>45174</v>
       </c>
@@ -6567,7 +6567,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A102" s="48">
         <v>45175</v>
       </c>
@@ -6605,7 +6605,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A103" s="48">
         <v>45175</v>
       </c>
@@ -6643,7 +6643,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A104" s="54">
         <v>45191</v>
       </c>
@@ -6681,7 +6681,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A105" s="54">
         <v>45193</v>
       </c>
@@ -6719,7 +6719,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A106" s="48">
         <v>45198</v>
       </c>
@@ -6757,7 +6757,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A107" s="48">
         <v>45204</v>
       </c>
@@ -6795,7 +6795,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A108" s="48">
         <v>45205</v>
       </c>
@@ -6833,7 +6833,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A109" s="48">
         <v>45205</v>
       </c>
@@ -6871,7 +6871,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A110" s="48">
         <v>45214</v>
       </c>
@@ -6909,7 +6909,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A111" s="48">
         <v>45214</v>
       </c>
@@ -6947,7 +6947,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A112" s="48">
         <v>45216</v>
       </c>
@@ -6985,7 +6985,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A113" s="48">
         <v>45216</v>
       </c>
@@ -7023,7 +7023,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="114" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A114" s="48">
         <v>45218</v>
       </c>
@@ -7058,7 +7058,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="115" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A115" s="48">
         <v>45218</v>
       </c>
@@ -7093,7 +7093,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="116" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A116" s="48">
         <v>45221</v>
       </c>
@@ -7131,7 +7131,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="117" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A117" s="48">
         <v>45222</v>
       </c>
@@ -7166,7 +7166,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A118" s="48">
         <v>45222</v>
       </c>
@@ -7201,7 +7201,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A119" s="48">
         <v>45223</v>
       </c>
@@ -7236,7 +7236,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A120" s="48">
         <v>45223</v>
       </c>
@@ -7271,7 +7271,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A121" s="48">
         <v>45225</v>
       </c>
@@ -7306,7 +7306,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A122" s="48">
         <v>45233</v>
       </c>
@@ -7341,7 +7341,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A123" s="53">
         <v>45237</v>
       </c>
@@ -7376,7 +7376,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A124" s="53">
         <v>45237</v>
       </c>
@@ -7411,7 +7411,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A125" s="53">
         <v>45240</v>
       </c>
@@ -7443,7 +7443,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="126" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A126" s="53">
         <v>45240</v>
       </c>
@@ -7475,7 +7475,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="127" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A127" s="53">
         <v>45240</v>
       </c>
@@ -7507,7 +7507,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="128" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A128" s="53">
         <v>45242</v>
       </c>
@@ -7539,7 +7539,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A129" s="53">
         <v>45242</v>
       </c>
@@ -7571,7 +7571,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A130" s="53">
         <v>45243</v>
       </c>
@@ -7603,7 +7603,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A131" s="53">
         <v>45243</v>
       </c>
@@ -7635,7 +7635,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A132" s="53">
         <v>45245</v>
       </c>
@@ -7667,7 +7667,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A133" s="53">
         <v>45245</v>
       </c>
@@ -7699,7 +7699,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A134" s="53">
         <v>45258</v>
       </c>
@@ -7731,7 +7731,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A135" s="53">
         <v>45258</v>
       </c>
@@ -7763,7 +7763,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A136" s="53">
         <v>45259</v>
       </c>
@@ -7795,7 +7795,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A137" s="53">
         <v>45259</v>
       </c>
@@ -7827,7 +7827,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A138" s="53">
         <v>45259</v>
       </c>
@@ -7859,7 +7859,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A139" s="53">
         <v>45266</v>
       </c>
@@ -7891,7 +7891,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A140" s="53">
         <v>45266</v>
       </c>
@@ -7923,7 +7923,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A141" s="53">
         <v>45267</v>
       </c>
@@ -7955,7 +7955,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A142" s="53">
         <v>45267</v>
       </c>
@@ -7987,7 +7987,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A143" s="53">
         <v>45267</v>
       </c>
@@ -8019,7 +8019,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A144" s="53">
         <v>45277</v>
       </c>
@@ -8051,7 +8051,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A145" s="53">
         <v>45277</v>
       </c>
@@ -8083,7 +8083,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A146" s="53">
         <v>45277</v>
       </c>
@@ -8115,7 +8115,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A147" s="53">
         <v>45278</v>
       </c>
@@ -8147,7 +8147,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A148" s="53">
         <v>45278</v>
       </c>
@@ -8179,7 +8179,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A149" s="53">
         <v>45278</v>
       </c>
@@ -8211,7 +8211,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A150" s="53">
         <v>45278</v>
       </c>
@@ -8243,7 +8243,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A151" s="53">
         <v>45278</v>
       </c>
@@ -8275,7 +8275,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A152" s="53">
         <v>45278</v>
       </c>
@@ -8307,7 +8307,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A153" s="53">
         <v>45289</v>
       </c>
@@ -8339,7 +8339,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A154" s="53">
         <v>45289</v>
       </c>
@@ -8371,7 +8371,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A155" s="53">
         <v>45289</v>
       </c>
@@ -8403,7 +8403,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A156" s="53">
         <v>45320</v>
       </c>
@@ -8435,7 +8435,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A157" s="53">
         <v>45320</v>
       </c>
@@ -8467,7 +8467,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A158" s="53">
         <v>45321</v>
       </c>
@@ -8499,7 +8499,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A159" s="53">
         <v>45321</v>
       </c>
@@ -8531,7 +8531,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A160" s="53">
         <v>45321</v>
       </c>
@@ -8563,7 +8563,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A161" s="53">
         <v>45322</v>
       </c>
@@ -8595,7 +8595,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A162" s="53">
         <v>45322</v>
       </c>
@@ -8627,7 +8627,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A163" s="53">
         <v>45324</v>
       </c>
@@ -8659,7 +8659,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A164" s="53">
         <v>45324</v>
       </c>
@@ -8691,7 +8691,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A165" s="53">
         <v>45324</v>
       </c>
@@ -8723,7 +8723,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A166" s="53">
         <v>45342</v>
       </c>
@@ -8755,7 +8755,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A167" s="53">
         <v>45342</v>
       </c>
@@ -8848,9 +8848,9 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>68</v>
       </c>
@@ -8858,7 +8858,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -8866,7 +8866,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>36</v>
       </c>
@@ -8874,7 +8874,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>132</v>
       </c>
@@ -8882,97 +8882,97 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>96</v>
       </c>

--- a/Catalog/Jupiter Session Processing and Analysis Notes.xlsx
+++ b/Catalog/Jupiter Session Processing and Analysis Notes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Astronomy\Projects\SAS 2021 Ammonia\Jupiter_NH3_Analysis_P3\Catalog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A9A6BB1-D058-4653-842A-5ED22AFA1091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04529C4B-08F3-41AC-9876-205395456FE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="560" firstSheet="1" activeTab="1" xr2:uid="{05635B54-1AD3-49CD-8C06-A4005DAA2CD5}"/>
   </bookViews>
@@ -22,7 +22,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1428" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1464" uniqueCount="133">
   <si>
     <t>2020-07-20-0457_9-Jupiter-NoWV-NH3Abs656-0.9to1.1scale_MapFlattened-CM2_L360_MAP-BARE.png</t>
   </si>
@@ -1736,7 +1736,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{45B2BBB7-02E3-49A7-AE80-0778995E2335}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{45B2BBB7-02E3-49A7-AE80-0778995E2335}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:M47" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" numFmtId="166" showAll="0" sortType="ascending">
@@ -2332,22 +2332,22 @@
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.54296875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="7.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="42" t="s">
         <v>33</v>
       </c>
@@ -2355,7 +2355,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="42" t="s">
         <v>131</v>
       </c>
@@ -2363,7 +2363,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="42" t="s">
         <v>127</v>
       </c>
@@ -2404,7 +2404,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="43">
         <v>44014</v>
       </c>
@@ -2424,7 +2424,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="43">
         <v>44018</v>
       </c>
@@ -2453,7 +2453,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="43">
         <v>44022</v>
       </c>
@@ -2482,7 +2482,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="43">
         <v>44032</v>
       </c>
@@ -2493,197 +2493,197 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="43">
         <v>44041</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="43">
         <v>44042</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="43">
         <v>44043</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="43">
         <v>44369</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="43">
         <v>44385</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="43">
         <v>44396</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="43">
         <v>44397</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="43">
         <v>44449</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="43">
         <v>44452</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" s="43">
         <v>44454</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" s="43">
         <v>44458</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" s="43">
         <v>44459</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" s="43">
         <v>44462</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" s="43">
         <v>44465</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" s="43">
         <v>44466</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" s="43">
         <v>44486</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" s="43">
         <v>44488</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" s="43">
         <v>44491</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" s="43">
         <v>44530</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" s="43">
         <v>44532</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" s="43">
         <v>44533</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" s="43">
         <v>44783</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31" s="43">
         <v>44785</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32" s="43">
         <v>44791</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" s="43">
         <v>44801</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" s="43">
         <v>44803</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" s="43">
         <v>44805</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36" s="43">
         <v>44808</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A37" s="43">
         <v>44809</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A38" s="43">
         <v>44816</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39" s="43">
         <v>44817</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40" s="43">
         <v>44823</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A41" s="43">
         <v>44829</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42" s="43">
         <v>44843</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A43" s="43">
         <v>44847</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A44" s="43">
         <v>44853</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A45" s="43">
         <v>44854</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A46" s="43">
         <v>44855</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A47" s="43" t="s">
         <v>128</v>
       </c>
@@ -2726,41 +2726,41 @@
   <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AC167"/>
+  <dimension ref="A1:AC171"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B156" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B155" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A158" sqref="A158:A167"/>
+      <selection pane="bottomRight" activeCell="A156" sqref="A156:A171"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14" style="45" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="46.5703125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="10.453125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="46.54296875" style="3" customWidth="1"/>
     <col min="4" max="4" width="13" style="4" customWidth="1"/>
-    <col min="5" max="6" width="8.7109375" style="1"/>
-    <col min="7" max="9" width="7.7109375" style="3" customWidth="1"/>
-    <col min="10" max="11" width="7.5703125" style="3" customWidth="1"/>
-    <col min="12" max="12" width="7.85546875" style="3" customWidth="1"/>
-    <col min="13" max="15" width="6.5703125" style="3" customWidth="1"/>
-    <col min="16" max="16" width="5.42578125" style="3" customWidth="1"/>
-    <col min="17" max="17" width="8.7109375" style="1"/>
-    <col min="18" max="18" width="8.7109375" style="4"/>
-    <col min="19" max="19" width="8.7109375" style="1"/>
-    <col min="20" max="20" width="8.7109375" style="23"/>
-    <col min="21" max="22" width="6.5703125" style="23" customWidth="1"/>
-    <col min="23" max="23" width="5.140625" style="1" customWidth="1"/>
-    <col min="24" max="24" width="50.28515625" style="2" customWidth="1"/>
-    <col min="25" max="25" width="30.42578125" style="2" customWidth="1"/>
+    <col min="5" max="6" width="8.7265625" style="1"/>
+    <col min="7" max="9" width="7.7265625" style="3" customWidth="1"/>
+    <col min="10" max="11" width="7.54296875" style="3" customWidth="1"/>
+    <col min="12" max="12" width="7.81640625" style="3" customWidth="1"/>
+    <col min="13" max="15" width="6.54296875" style="3" customWidth="1"/>
+    <col min="16" max="16" width="5.453125" style="3" customWidth="1"/>
+    <col min="17" max="17" width="8.7265625" style="1"/>
+    <col min="18" max="18" width="8.7265625" style="4"/>
+    <col min="19" max="19" width="8.7265625" style="1"/>
+    <col min="20" max="20" width="8.7265625" style="23"/>
+    <col min="21" max="22" width="6.54296875" style="23" customWidth="1"/>
+    <col min="23" max="23" width="5.1796875" style="1" customWidth="1"/>
+    <col min="24" max="24" width="50.26953125" style="2" customWidth="1"/>
+    <col min="25" max="25" width="30.453125" style="2" customWidth="1"/>
     <col min="26" max="26" width="12" style="6" customWidth="1"/>
-    <col min="27" max="28" width="5.7109375" style="5" customWidth="1"/>
-    <col min="29" max="29" width="5.7109375" style="1" customWidth="1"/>
+    <col min="27" max="28" width="5.7265625" style="5" customWidth="1"/>
+    <col min="29" max="29" width="5.7265625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="19" customFormat="1" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" s="19" customFormat="1" ht="51.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="44" t="s">
         <v>52</v>
       </c>
@@ -2849,7 +2849,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:29" s="19" customFormat="1" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" s="19" customFormat="1" ht="51.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="49">
         <v>44014</v>
       </c>
@@ -2885,7 +2885,7 @@
       <c r="AB2" s="21"/>
       <c r="AC2" s="20"/>
     </row>
-    <row r="3" spans="1:29" s="19" customFormat="1" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" s="19" customFormat="1" ht="51.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="49">
         <v>44014</v>
       </c>
@@ -2921,7 +2921,7 @@
       <c r="AB3" s="21"/>
       <c r="AC3" s="20"/>
     </row>
-    <row r="4" spans="1:29" s="19" customFormat="1" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" s="19" customFormat="1" ht="51.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="49">
         <v>44014</v>
       </c>
@@ -2957,7 +2957,7 @@
       <c r="AB4" s="21"/>
       <c r="AC4" s="20"/>
     </row>
-    <row r="5" spans="1:29" s="19" customFormat="1" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" s="19" customFormat="1" ht="51.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="49">
         <v>44014</v>
       </c>
@@ -2993,7 +2993,7 @@
       <c r="AB5" s="21"/>
       <c r="AC5" s="20"/>
     </row>
-    <row r="6" spans="1:29" s="19" customFormat="1" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" s="19" customFormat="1" ht="51.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="49">
         <v>44018</v>
       </c>
@@ -3029,7 +3029,7 @@
       <c r="AB6" s="21"/>
       <c r="AC6" s="20"/>
     </row>
-    <row r="7" spans="1:29" s="19" customFormat="1" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" s="19" customFormat="1" ht="51.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="49">
         <v>44018</v>
       </c>
@@ -3065,7 +3065,7 @@
       <c r="AB7" s="21"/>
       <c r="AC7" s="20"/>
     </row>
-    <row r="8" spans="1:29" s="19" customFormat="1" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" s="19" customFormat="1" ht="51.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="49">
         <v>44018</v>
       </c>
@@ -3101,7 +3101,7 @@
       <c r="AB8" s="21"/>
       <c r="AC8" s="20"/>
     </row>
-    <row r="9" spans="1:29" s="19" customFormat="1" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" s="19" customFormat="1" ht="51.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="49">
         <v>44018</v>
       </c>
@@ -3137,7 +3137,7 @@
       <c r="AB9" s="21"/>
       <c r="AC9" s="20"/>
     </row>
-    <row r="10" spans="1:29" s="19" customFormat="1" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" s="19" customFormat="1" ht="51.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="49">
         <v>44018</v>
       </c>
@@ -3173,7 +3173,7 @@
       <c r="AB10" s="21"/>
       <c r="AC10" s="20"/>
     </row>
-    <row r="11" spans="1:29" s="19" customFormat="1" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" s="19" customFormat="1" ht="51.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="49">
         <v>44018</v>
       </c>
@@ -3209,7 +3209,7 @@
       <c r="AB11" s="21"/>
       <c r="AC11" s="20"/>
     </row>
-    <row r="12" spans="1:29" s="19" customFormat="1" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" s="19" customFormat="1" ht="51.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="49">
         <v>44018</v>
       </c>
@@ -3245,7 +3245,7 @@
       <c r="AB12" s="21"/>
       <c r="AC12" s="20"/>
     </row>
-    <row r="13" spans="1:29" s="19" customFormat="1" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" s="19" customFormat="1" ht="51.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="49">
         <v>44022</v>
       </c>
@@ -3281,7 +3281,7 @@
       <c r="AB13" s="21"/>
       <c r="AC13" s="20"/>
     </row>
-    <row r="14" spans="1:29" s="19" customFormat="1" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" s="19" customFormat="1" ht="51.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="49">
         <v>44022</v>
       </c>
@@ -3317,7 +3317,7 @@
       <c r="AB14" s="21"/>
       <c r="AC14" s="20"/>
     </row>
-    <row r="15" spans="1:29" s="19" customFormat="1" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" s="19" customFormat="1" ht="51.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="49">
         <v>44022</v>
       </c>
@@ -3353,7 +3353,7 @@
       <c r="AB15" s="21"/>
       <c r="AC15" s="20"/>
     </row>
-    <row r="16" spans="1:29" s="19" customFormat="1" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" s="19" customFormat="1" ht="51.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="49">
         <v>44022</v>
       </c>
@@ -3389,7 +3389,7 @@
       <c r="AB16" s="21"/>
       <c r="AC16" s="20"/>
     </row>
-    <row r="17" spans="1:29" s="19" customFormat="1" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:29" s="19" customFormat="1" ht="51.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="49">
         <v>44022</v>
       </c>
@@ -3425,7 +3425,7 @@
       <c r="AB17" s="21"/>
       <c r="AC17" s="20"/>
     </row>
-    <row r="18" spans="1:29" s="19" customFormat="1" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:29" s="19" customFormat="1" ht="51.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="49">
         <v>44022</v>
       </c>
@@ -3461,7 +3461,7 @@
       <c r="AB18" s="21"/>
       <c r="AC18" s="20"/>
     </row>
-    <row r="19" spans="1:29" s="19" customFormat="1" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:29" s="19" customFormat="1" ht="51.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="49">
         <v>44022</v>
       </c>
@@ -3497,7 +3497,7 @@
       <c r="AB19" s="21"/>
       <c r="AC19" s="20"/>
     </row>
-    <row r="20" spans="1:29" ht="60" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:29" ht="58" x14ac:dyDescent="0.35">
       <c r="A20" s="50">
         <v>44032</v>
       </c>
@@ -3551,7 +3551,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A21" s="50">
         <v>44032</v>
       </c>
@@ -3563,7 +3563,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A22" s="50">
         <v>44032</v>
       </c>
@@ -3575,7 +3575,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A23" s="50">
         <v>44032</v>
       </c>
@@ -3587,7 +3587,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A24" s="50">
         <v>44032</v>
       </c>
@@ -3599,7 +3599,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A25" s="50">
         <v>44032</v>
       </c>
@@ -3611,7 +3611,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A26" s="50">
         <v>44032</v>
       </c>
@@ -3623,7 +3623,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:29" ht="75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:29" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A27" s="50">
         <v>44041</v>
       </c>
@@ -3671,7 +3671,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:29" ht="60" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:29" ht="58" x14ac:dyDescent="0.35">
       <c r="A28" s="50">
         <v>44042</v>
       </c>
@@ -3719,7 +3719,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:29" ht="90" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:29" ht="58" x14ac:dyDescent="0.35">
       <c r="A29" s="50">
         <v>44043</v>
       </c>
@@ -3767,7 +3767,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" s="50">
         <v>44076</v>
       </c>
@@ -3782,7 +3782,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" s="50">
         <v>44077</v>
       </c>
@@ -3797,7 +3797,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" s="50">
         <v>44078</v>
       </c>
@@ -3812,7 +3812,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:29" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:29" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" s="50">
         <v>44087</v>
       </c>
@@ -3845,7 +3845,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:29" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:29" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" s="50">
         <v>44088</v>
       </c>
@@ -3878,7 +3878,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" s="50">
         <v>44089</v>
       </c>
@@ -3890,7 +3890,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="36" spans="1:29" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:29" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" s="50">
         <v>44098</v>
       </c>
@@ -3937,7 +3937,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:29" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:29" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" s="50">
         <v>44099</v>
       </c>
@@ -3973,7 +3973,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" s="50">
         <v>44111</v>
       </c>
@@ -3985,7 +3985,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="39" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" s="50">
         <v>44112</v>
       </c>
@@ -3997,7 +3997,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="40" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" s="50">
         <v>44113</v>
       </c>
@@ -4009,7 +4009,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="41" spans="1:29" ht="105" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:29" ht="87" x14ac:dyDescent="0.35">
       <c r="A41" s="46">
         <v>44369</v>
       </c>
@@ -4060,7 +4060,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:29" ht="90" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:29" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A42" s="46">
         <v>44385</v>
       </c>
@@ -4123,7 +4123,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:29" ht="120" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:29" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A43" s="46">
         <v>44396</v>
       </c>
@@ -4187,7 +4187,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:29" ht="60" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:29" ht="58" x14ac:dyDescent="0.35">
       <c r="A44" s="46">
         <v>44397</v>
       </c>
@@ -4247,7 +4247,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" s="46">
         <v>44420</v>
       </c>
@@ -4271,7 +4271,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" s="46">
         <v>44425</v>
       </c>
@@ -4295,7 +4295,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" s="46">
         <v>44438</v>
       </c>
@@ -4319,7 +4319,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" s="46">
         <v>44444</v>
       </c>
@@ -4345,7 +4345,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" s="46">
         <v>44445</v>
       </c>
@@ -4369,7 +4369,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:29" ht="60" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:29" ht="58" x14ac:dyDescent="0.35">
       <c r="A50" s="46">
         <v>44449</v>
       </c>
@@ -4432,7 +4432,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:29" ht="120" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:29" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A51" s="46">
         <v>44452</v>
       </c>
@@ -4461,7 +4461,7 @@
       </c>
       <c r="Y51" s="10"/>
     </row>
-    <row r="52" spans="1:29" ht="60" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:29" ht="58" x14ac:dyDescent="0.35">
       <c r="A52" s="46">
         <v>44454</v>
       </c>
@@ -4525,7 +4525,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:29" ht="60" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:29" ht="58" x14ac:dyDescent="0.35">
       <c r="A53" s="46">
         <v>44458</v>
       </c>
@@ -4563,7 +4563,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="54" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A54" s="46">
         <v>44459</v>
       </c>
@@ -4587,7 +4587,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:29" ht="120" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:29" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A55" s="46">
         <v>44462</v>
       </c>
@@ -4623,7 +4623,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="56" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A56" s="46">
         <v>44465</v>
       </c>
@@ -4647,7 +4647,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:29" ht="90" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:29" ht="87" x14ac:dyDescent="0.35">
       <c r="A57" s="46">
         <v>44466</v>
       </c>
@@ -4709,7 +4709,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:29" ht="75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:29" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A58" s="46">
         <v>44486</v>
       </c>
@@ -4763,7 +4763,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="59" spans="1:29" ht="60" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:29" ht="58" x14ac:dyDescent="0.35">
       <c r="A59" s="46">
         <v>44488</v>
       </c>
@@ -4814,7 +4814,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:29" ht="105" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:29" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A60" s="46">
         <v>44491</v>
       </c>
@@ -4868,7 +4868,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="61" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" s="46">
         <v>44522</v>
       </c>
@@ -4886,7 +4886,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:29" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:29" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62" s="46">
         <v>44523</v>
       </c>
@@ -4940,7 +4940,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="63" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A63" s="46">
         <v>44530</v>
       </c>
@@ -5003,7 +5003,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:29" ht="90" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:29" ht="87" x14ac:dyDescent="0.35">
       <c r="A64" s="46">
         <v>44532</v>
       </c>
@@ -5068,7 +5068,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A65" s="46">
         <v>44533</v>
       </c>
@@ -5133,7 +5133,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A66" s="47">
         <v>44772</v>
       </c>
@@ -5142,7 +5142,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="67" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A67" s="47">
         <v>44783</v>
       </c>
@@ -5189,7 +5189,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="68" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A68" s="47">
         <v>44785</v>
       </c>
@@ -5236,7 +5236,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="69" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A69" s="47">
         <v>44791</v>
       </c>
@@ -5283,7 +5283,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="70" spans="1:29" ht="75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A70" s="47">
         <v>44801</v>
       </c>
@@ -5333,7 +5333,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="71" spans="1:29" ht="75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A71" s="47">
         <v>44803</v>
       </c>
@@ -5380,7 +5380,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:29" ht="75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A72" s="47">
         <v>44805</v>
       </c>
@@ -5430,7 +5430,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="73" spans="1:29" ht="75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A73" s="47">
         <v>44808</v>
       </c>
@@ -5477,7 +5477,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:29" ht="75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A74" s="47">
         <v>44809</v>
       </c>
@@ -5527,7 +5527,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="75" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A75" s="47">
         <v>44816</v>
       </c>
@@ -5574,7 +5574,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="76" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A76" s="47">
         <v>44817</v>
       </c>
@@ -5621,7 +5621,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="77" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A77" s="47">
         <v>44823</v>
       </c>
@@ -5655,7 +5655,7 @@
       <c r="T77" s="29"/>
       <c r="U77" s="28"/>
     </row>
-    <row r="78" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A78" s="47">
         <v>44823</v>
       </c>
@@ -5702,7 +5702,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="79" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A79" s="47">
         <v>44829</v>
       </c>
@@ -5749,7 +5749,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="80" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A80" s="47">
         <v>44843</v>
       </c>
@@ -5796,7 +5796,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A81" s="47">
         <v>44843</v>
       </c>
@@ -5816,7 +5816,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="82" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A82" s="47">
         <v>44847</v>
       </c>
@@ -5860,7 +5860,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A83" s="47">
         <v>44853</v>
       </c>
@@ -5907,7 +5907,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A84" s="47">
         <v>44854</v>
       </c>
@@ -5951,7 +5951,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A85" s="47">
         <v>44855</v>
       </c>
@@ -5998,7 +5998,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="86" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:24" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86" s="47">
         <v>44865</v>
       </c>
@@ -6027,7 +6027,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="87" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:24" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87" s="47">
         <v>44866</v>
       </c>
@@ -6056,7 +6056,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="88" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:24" hidden="1" x14ac:dyDescent="0.35">
       <c r="A88" s="47">
         <v>44874</v>
       </c>
@@ -6085,7 +6085,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="89" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:24" hidden="1" x14ac:dyDescent="0.35">
       <c r="A89" s="47">
         <v>44886</v>
       </c>
@@ -6111,7 +6111,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="90" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A90" s="47">
         <v>44939</v>
       </c>
@@ -6149,7 +6149,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A91" s="54">
         <v>45153</v>
       </c>
@@ -6187,7 +6187,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A92" s="54">
         <v>45154</v>
       </c>
@@ -6225,7 +6225,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A93" s="48">
         <v>45155</v>
       </c>
@@ -6263,7 +6263,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A94" s="48">
         <v>45156</v>
       </c>
@@ -6301,7 +6301,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A95" s="48">
         <v>45165</v>
       </c>
@@ -6339,7 +6339,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A96" s="48">
         <v>45165</v>
       </c>
@@ -6377,7 +6377,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A97" s="48">
         <v>45168</v>
       </c>
@@ -6415,7 +6415,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A98" s="48">
         <v>45169</v>
       </c>
@@ -6453,7 +6453,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A99" s="48">
         <v>45169</v>
       </c>
@@ -6491,7 +6491,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A100" s="48">
         <v>45174</v>
       </c>
@@ -6529,7 +6529,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A101" s="48">
         <v>45174</v>
       </c>
@@ -6567,7 +6567,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A102" s="48">
         <v>45175</v>
       </c>
@@ -6605,7 +6605,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A103" s="48">
         <v>45175</v>
       </c>
@@ -6643,7 +6643,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A104" s="54">
         <v>45191</v>
       </c>
@@ -6681,7 +6681,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A105" s="54">
         <v>45193</v>
       </c>
@@ -6719,7 +6719,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A106" s="48">
         <v>45198</v>
       </c>
@@ -6757,7 +6757,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A107" s="48">
         <v>45204</v>
       </c>
@@ -6795,7 +6795,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A108" s="48">
         <v>45205</v>
       </c>
@@ -6833,7 +6833,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A109" s="48">
         <v>45205</v>
       </c>
@@ -6871,7 +6871,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A110" s="48">
         <v>45214</v>
       </c>
@@ -6909,7 +6909,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A111" s="48">
         <v>45214</v>
       </c>
@@ -6947,7 +6947,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A112" s="48">
         <v>45216</v>
       </c>
@@ -6985,7 +6985,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A113" s="48">
         <v>45216</v>
       </c>
@@ -7023,7 +7023,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="114" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A114" s="48">
         <v>45218</v>
       </c>
@@ -7058,7 +7058,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="115" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A115" s="48">
         <v>45218</v>
       </c>
@@ -7093,7 +7093,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="116" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A116" s="48">
         <v>45221</v>
       </c>
@@ -7131,7 +7131,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="117" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A117" s="48">
         <v>45222</v>
       </c>
@@ -7166,7 +7166,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A118" s="48">
         <v>45222</v>
       </c>
@@ -7201,7 +7201,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A119" s="48">
         <v>45223</v>
       </c>
@@ -7236,7 +7236,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A120" s="48">
         <v>45223</v>
       </c>
@@ -7271,7 +7271,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A121" s="48">
         <v>45225</v>
       </c>
@@ -7306,7 +7306,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A122" s="48">
         <v>45233</v>
       </c>
@@ -7341,7 +7341,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A123" s="53">
         <v>45237</v>
       </c>
@@ -7376,7 +7376,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A124" s="53">
         <v>45237</v>
       </c>
@@ -7411,7 +7411,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A125" s="53">
         <v>45240</v>
       </c>
@@ -7443,7 +7443,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="126" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A126" s="53">
         <v>45240</v>
       </c>
@@ -7475,7 +7475,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="127" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A127" s="53">
         <v>45240</v>
       </c>
@@ -7507,7 +7507,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="128" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A128" s="53">
         <v>45242</v>
       </c>
@@ -7539,7 +7539,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A129" s="53">
         <v>45242</v>
       </c>
@@ -7571,7 +7571,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A130" s="53">
         <v>45243</v>
       </c>
@@ -7603,7 +7603,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A131" s="53">
         <v>45243</v>
       </c>
@@ -7635,7 +7635,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A132" s="53">
         <v>45245</v>
       </c>
@@ -7667,7 +7667,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A133" s="53">
         <v>45245</v>
       </c>
@@ -7699,7 +7699,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A134" s="53">
         <v>45258</v>
       </c>
@@ -7731,7 +7731,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A135" s="53">
         <v>45258</v>
       </c>
@@ -7763,7 +7763,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A136" s="53">
         <v>45259</v>
       </c>
@@ -7795,7 +7795,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A137" s="53">
         <v>45259</v>
       </c>
@@ -7827,7 +7827,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A138" s="53">
         <v>45259</v>
       </c>
@@ -7859,7 +7859,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A139" s="53">
         <v>45266</v>
       </c>
@@ -7891,7 +7891,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A140" s="53">
         <v>45266</v>
       </c>
@@ -7923,7 +7923,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A141" s="53">
         <v>45267</v>
       </c>
@@ -7955,7 +7955,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A142" s="53">
         <v>45267</v>
       </c>
@@ -7987,7 +7987,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A143" s="53">
         <v>45267</v>
       </c>
@@ -8019,7 +8019,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A144" s="53">
         <v>45277</v>
       </c>
@@ -8051,7 +8051,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A145" s="53">
         <v>45277</v>
       </c>
@@ -8083,7 +8083,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A146" s="53">
         <v>45277</v>
       </c>
@@ -8115,7 +8115,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A147" s="53">
         <v>45278</v>
       </c>
@@ -8147,7 +8147,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A148" s="53">
         <v>45278</v>
       </c>
@@ -8179,7 +8179,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A149" s="53">
         <v>45278</v>
       </c>
@@ -8211,7 +8211,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A150" s="53">
         <v>45278</v>
       </c>
@@ -8243,7 +8243,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A151" s="53">
         <v>45278</v>
       </c>
@@ -8275,7 +8275,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A152" s="53">
         <v>45278</v>
       </c>
@@ -8307,7 +8307,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A153" s="53">
         <v>45289</v>
       </c>
@@ -8339,7 +8339,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A154" s="53">
         <v>45289</v>
       </c>
@@ -8371,7 +8371,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A155" s="53">
         <v>45289</v>
       </c>
@@ -8403,7 +8403,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A156" s="53">
         <v>45320</v>
       </c>
@@ -8435,7 +8435,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A157" s="53">
         <v>45320</v>
       </c>
@@ -8467,7 +8467,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A158" s="53">
         <v>45321</v>
       </c>
@@ -8499,7 +8499,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A159" s="53">
         <v>45321</v>
       </c>
@@ -8531,7 +8531,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A160" s="53">
         <v>45321</v>
       </c>
@@ -8563,7 +8563,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A161" s="53">
         <v>45322</v>
       </c>
@@ -8595,7 +8595,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A162" s="53">
         <v>45322</v>
       </c>
@@ -8627,7 +8627,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A163" s="53">
         <v>45324</v>
       </c>
@@ -8659,7 +8659,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A164" s="53">
         <v>45324</v>
       </c>
@@ -8691,7 +8691,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A165" s="53">
         <v>45324</v>
       </c>
@@ -8723,7 +8723,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A166" s="53">
         <v>45342</v>
       </c>
@@ -8755,7 +8755,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A167" s="53">
         <v>45342</v>
       </c>
@@ -8784,6 +8784,134 @@
         <v>87</v>
       </c>
       <c r="N167" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A168" s="53">
+        <v>45351</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G168" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H168" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="I168" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="J168" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K168" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L168" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="M168" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="N168" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A169" s="53">
+        <v>45351</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G169" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H169" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="I169" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="J169" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K169" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L169" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="M169" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="N169" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A170" s="53">
+        <v>45352</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G170" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H170" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="I170" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="J170" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K170" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L170" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="M170" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="N170" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A171" s="53">
+        <v>45352</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G171" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H171" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="I171" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="J171" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K171" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L171" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="M171" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="N171" s="3" t="s">
         <v>87</v>
       </c>
     </row>
@@ -8848,9 +8976,9 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
         <v>68</v>
       </c>
@@ -8858,7 +8986,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -8866,7 +8994,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>36</v>
       </c>
@@ -8874,7 +9002,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>132</v>
       </c>
@@ -8882,97 +9010,97 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>96</v>
       </c>
